--- a/Code/Results/Cases/Case_3_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34901454028362</v>
+        <v>14.77062261171358</v>
       </c>
       <c r="C2">
-        <v>14.75884349610381</v>
+        <v>8.28909245029398</v>
       </c>
       <c r="D2">
-        <v>9.27907861782213</v>
+        <v>11.02070741106156</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.90701041771116</v>
+        <v>31.27156940681103</v>
       </c>
       <c r="G2">
-        <v>2.065246062798899</v>
+        <v>3.630599936758346</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.308385515028505</v>
+        <v>11.31532976177555</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.46637292622885</v>
+        <v>16.72606001585262</v>
       </c>
       <c r="O2">
-        <v>16.05897333347693</v>
+        <v>22.50128920119138</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.90844285153989</v>
+        <v>14.22076246652055</v>
       </c>
       <c r="C3">
-        <v>13.82099844484591</v>
+        <v>7.793167420331984</v>
       </c>
       <c r="D3">
-        <v>8.830271433595161</v>
+        <v>10.94845887686247</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.02037543476779</v>
+        <v>31.22979351790346</v>
       </c>
       <c r="G3">
-        <v>2.071431172566265</v>
+        <v>3.632935291580253</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.024058033508439</v>
+        <v>11.29702547725283</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.60328272924452</v>
+        <v>16.77463508004433</v>
       </c>
       <c r="O3">
-        <v>15.70951181177525</v>
+        <v>22.53699519947344</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.97207239813734</v>
+        <v>13.87404117160827</v>
       </c>
       <c r="C4">
-        <v>13.21250749467906</v>
+        <v>7.471839705447739</v>
       </c>
       <c r="D4">
-        <v>8.547484262569375</v>
+        <v>10.90590904532199</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.48655480546439</v>
+        <v>31.21367588684572</v>
       </c>
       <c r="G4">
-        <v>2.07533969581891</v>
+        <v>3.634444977134963</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.850364503887129</v>
+        <v>11.28812540311812</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.69109862062892</v>
+        <v>16.80634236683635</v>
       </c>
       <c r="O4">
-        <v>15.51015580134971</v>
+        <v>22.56538612541161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.57736838724201</v>
+        <v>13.73067638935665</v>
       </c>
       <c r="C5">
-        <v>12.95632777038434</v>
+        <v>7.336731380094379</v>
       </c>
       <c r="D5">
-        <v>8.430574951580711</v>
+        <v>10.8890392604194</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.27193846135726</v>
+        <v>31.20950729660418</v>
       </c>
       <c r="G5">
-        <v>2.07696118130705</v>
+        <v>3.635079301762444</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.779892001262523</v>
+        <v>11.28508895291286</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.72781542200777</v>
+        <v>16.81973741789058</v>
       </c>
       <c r="O5">
-        <v>15.43272168650622</v>
+        <v>22.57857616516829</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.51103285874631</v>
+        <v>13.7067523331536</v>
       </c>
       <c r="C6">
-        <v>12.91329328453672</v>
+        <v>7.314047489722779</v>
       </c>
       <c r="D6">
-        <v>8.411065981694943</v>
+        <v>10.88626680967515</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.23648571744583</v>
+        <v>31.20896004914019</v>
       </c>
       <c r="G6">
-        <v>2.077232187269905</v>
+        <v>3.635185787265117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.768211409471926</v>
+        <v>11.2846204691244</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.73396812337337</v>
+        <v>16.82199031359592</v>
       </c>
       <c r="O6">
-        <v>15.42009272862469</v>
+        <v>22.58086405383218</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96680253931821</v>
+        <v>13.87211579530327</v>
       </c>
       <c r="C7">
-        <v>13.20908582365505</v>
+        <v>7.470034349614972</v>
       </c>
       <c r="D7">
-        <v>8.545914141983733</v>
+        <v>10.90567961383011</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.48364824082221</v>
+        <v>31.21360995115057</v>
       </c>
       <c r="G7">
-        <v>2.075361446306181</v>
+        <v>3.634453454377544</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.849412716875048</v>
+        <v>11.28808205930267</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.69159004144231</v>
+        <v>16.8065210965699</v>
       </c>
       <c r="O7">
-        <v>15.50909612946329</v>
+        <v>22.56555745770702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86301477893914</v>
+        <v>14.58304359547821</v>
       </c>
       <c r="C8">
-        <v>14.44224459298041</v>
+        <v>8.12162532492375</v>
       </c>
       <c r="D8">
-        <v>9.125906820747257</v>
+        <v>10.99542897899306</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.59925579444213</v>
+        <v>31.2551886396931</v>
       </c>
       <c r="G8">
-        <v>2.0673562152354</v>
+        <v>3.63138947936532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.210215597702756</v>
+        <v>11.30853452648393</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.51279244596139</v>
+        <v>16.74241858385625</v>
       </c>
       <c r="O8">
-        <v>15.93531291173741</v>
+        <v>22.51225509723146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.17408026553206</v>
+        <v>15.89652648019193</v>
       </c>
       <c r="C9">
-        <v>16.60221745033276</v>
+        <v>9.263677955568763</v>
       </c>
       <c r="D9">
-        <v>10.20088171895963</v>
+        <v>11.18513980608671</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.86030585975458</v>
+        <v>31.41215400470238</v>
       </c>
       <c r="G9">
-        <v>2.052496083427186</v>
+        <v>3.625979347569381</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.921363899622589</v>
+        <v>11.36707972421557</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.19260751873605</v>
+        <v>16.63160971626749</v>
       </c>
       <c r="O9">
-        <v>16.89217312977225</v>
+        <v>22.45927026538271</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.36416432745305</v>
+        <v>16.80260274048421</v>
       </c>
       <c r="C10">
-        <v>18.03357009759</v>
+        <v>10.03797756844444</v>
       </c>
       <c r="D10">
-        <v>10.94732756033325</v>
+        <v>11.3319571137071</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>28.55389364656422</v>
+        <v>31.57302327772127</v>
       </c>
       <c r="G10">
-        <v>2.042027498565932</v>
+        <v>3.622365249793971</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.442172013297064</v>
+        <v>11.42114507562969</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.97700329777164</v>
+        <v>16.5592292481991</v>
       </c>
       <c r="O10">
-        <v>17.66889514476517</v>
+        <v>22.45202492212481</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.3091474644613</v>
+        <v>17.20032541560146</v>
       </c>
       <c r="C11">
-        <v>18.65151492761587</v>
+        <v>10.37563825539757</v>
       </c>
       <c r="D11">
-        <v>11.27677151353426</v>
+        <v>11.40015560932114</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.32941783289294</v>
+        <v>31.65595262716799</v>
       </c>
       <c r="G11">
-        <v>2.037347747954154</v>
+        <v>3.620798575083069</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.678131812316119</v>
+        <v>11.44809104021795</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.88347820723116</v>
+        <v>16.528252239397</v>
       </c>
       <c r="O11">
-        <v>18.03816000783229</v>
+        <v>22.4556475017766</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.65972470530089</v>
+        <v>17.34873747353617</v>
       </c>
       <c r="C12">
-        <v>18.88079740864423</v>
+        <v>10.50049100675318</v>
       </c>
       <c r="D12">
-        <v>11.40003066790424</v>
+        <v>11.42616538529199</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.62370659383772</v>
+        <v>31.68874164064083</v>
       </c>
       <c r="G12">
-        <v>2.035586172894892</v>
+        <v>3.620216380571121</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.76731019674682</v>
+        <v>11.45862793703306</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.84874739308862</v>
+        <v>16.51680162510798</v>
       </c>
       <c r="O12">
-        <v>18.18027429527696</v>
+        <v>22.45801587671632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.58454304480929</v>
+        <v>17.31687370445016</v>
       </c>
       <c r="C13">
-        <v>18.83162633645259</v>
+        <v>10.47373550671774</v>
       </c>
       <c r="D13">
-        <v>11.37355151309072</v>
+        <v>11.42055580467926</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.56030037263323</v>
+        <v>31.68161860770888</v>
       </c>
       <c r="G13">
-        <v>2.035965112678702</v>
+        <v>3.620341275104829</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.748112251262906</v>
+        <v>11.45634390106667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.85619629787111</v>
+        <v>16.51925528885777</v>
       </c>
       <c r="O13">
-        <v>18.14956603357898</v>
+        <v>22.45746146399746</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.33813466918452</v>
+        <v>17.21258001510228</v>
       </c>
       <c r="C14">
-        <v>18.67047240470539</v>
+        <v>10.38597026482095</v>
       </c>
       <c r="D14">
-        <v>11.2869422316296</v>
+        <v>11.40229185795929</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.35361736693235</v>
+        <v>31.65862253475935</v>
       </c>
       <c r="G14">
-        <v>2.037202618682615</v>
+        <v>3.620750456039642</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.685472235563489</v>
+        <v>11.44895127300221</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.88060696332586</v>
+        <v>16.52730458801744</v>
       </c>
       <c r="O14">
-        <v>18.04980613549268</v>
+        <v>22.4558223698615</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.18625933096008</v>
+        <v>17.148407780252</v>
       </c>
       <c r="C15">
-        <v>18.5711479719253</v>
+        <v>10.33181961226104</v>
       </c>
       <c r="D15">
-        <v>11.23369607189539</v>
+        <v>11.39112813935358</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.22709525164612</v>
+        <v>31.64471667664368</v>
       </c>
       <c r="G15">
-        <v>2.037961959306406</v>
+        <v>3.621002531249319</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.647079812837775</v>
+        <v>11.4444662888603</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.89564939171235</v>
+        <v>16.53227142516748</v>
       </c>
       <c r="O15">
-        <v>17.98899730320678</v>
+        <v>22.45494819701654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.30138443020014</v>
+        <v>16.77630927716089</v>
       </c>
       <c r="C16">
-        <v>17.99252248656764</v>
+        <v>10.01548852771207</v>
       </c>
       <c r="D16">
-        <v>10.92559031482845</v>
+        <v>11.32752700366384</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.50330288918208</v>
+        <v>31.5677984755446</v>
       </c>
       <c r="G16">
-        <v>2.042334880784236</v>
+        <v>3.622469188090947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.426728794451842</v>
+        <v>11.41943098495924</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.98320951264536</v>
+        <v>16.56129284100247</v>
       </c>
       <c r="O16">
-        <v>17.64508246616707</v>
+        <v>22.4519275630465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.74547985317889</v>
+        <v>16.54424724709641</v>
       </c>
       <c r="C17">
-        <v>17.62908999683296</v>
+        <v>9.81605251191716</v>
       </c>
       <c r="D17">
-        <v>10.73395303318774</v>
+        <v>11.28885808470129</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.060489165859</v>
+        <v>31.52309769119038</v>
       </c>
       <c r="G17">
-        <v>2.045037745574905</v>
+        <v>3.623388716028431</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.29127526487261</v>
+        <v>11.40467140612282</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.03811145730565</v>
+        <v>16.57959535575567</v>
       </c>
       <c r="O17">
-        <v>17.43817379938169</v>
+        <v>22.45184800368563</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.42090308081999</v>
+        <v>16.40941664284531</v>
       </c>
       <c r="C18">
-        <v>17.41692618775366</v>
+        <v>9.699362477591695</v>
       </c>
       <c r="D18">
-        <v>10.62277727648985</v>
+        <v>11.26675063403003</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.8062793926613</v>
+        <v>31.49830575208768</v>
       </c>
       <c r="G18">
-        <v>2.046600208173571</v>
+        <v>3.623924892560912</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.21327722015832</v>
+        <v>11.39640374100581</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.07011622975199</v>
+        <v>16.59030598239102</v>
       </c>
       <c r="O18">
-        <v>17.32066515555174</v>
+        <v>22.45245340205987</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.31017328298633</v>
+        <v>16.36353651278694</v>
       </c>
       <c r="C19">
-        <v>17.34455261773343</v>
+        <v>9.659512881655075</v>
       </c>
       <c r="D19">
-        <v>10.5849731826652</v>
+        <v>11.25928898095512</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.72029591236395</v>
+        <v>31.49006988908832</v>
       </c>
       <c r="G19">
-        <v>2.047130617057999</v>
+        <v>3.624107686292894</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.186854489682315</v>
+        <v>11.39364266843591</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.08102491749001</v>
+        <v>16.59396395199628</v>
       </c>
       <c r="O19">
-        <v>17.28113669809512</v>
+        <v>22.45277014990164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.80515649234845</v>
+        <v>16.56909175454516</v>
       </c>
       <c r="C20">
-        <v>17.6681012881547</v>
+        <v>9.837487628277247</v>
       </c>
       <c r="D20">
-        <v>10.75445191375571</v>
+        <v>11.29296073218225</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.10757824180702</v>
+        <v>31.52776118827672</v>
       </c>
       <c r="G20">
-        <v>2.044749218119582</v>
+        <v>3.623290076813316</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.305704013780742</v>
+        <v>11.40621968348493</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.03222269213778</v>
+        <v>16.5776280341582</v>
       </c>
       <c r="O20">
-        <v>17.46004444656574</v>
+        <v>22.45178906512852</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.41070711920655</v>
+        <v>17.24327408689077</v>
       </c>
       <c r="C21">
-        <v>18.71793486614742</v>
+        <v>10.41183069601909</v>
       </c>
       <c r="D21">
-        <v>11.31242226181856</v>
+        <v>11.40765156254887</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.41430924385832</v>
+        <v>31.66533958033622</v>
       </c>
       <c r="G21">
-        <v>2.036838857984852</v>
+        <v>3.620629969673943</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.703876094220364</v>
+        <v>11.45111367098324</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.87341810343266</v>
+        <v>16.5249327271501</v>
       </c>
       <c r="O21">
-        <v>18.07904615050098</v>
+        <v>22.45627675547275</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.41772225266723</v>
+        <v>17.67104196553528</v>
       </c>
       <c r="C22">
-        <v>19.37658011819476</v>
+        <v>10.76964633657051</v>
       </c>
       <c r="D22">
-        <v>11.66837188828872</v>
+        <v>11.48367528887198</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.27188985165089</v>
+        <v>31.76332130787371</v>
       </c>
       <c r="G22">
-        <v>2.031729755165011</v>
+        <v>3.618955940539192</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.963079203974793</v>
+        <v>11.48239306388591</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.77364065606874</v>
+        <v>16.49212338704491</v>
       </c>
       <c r="O22">
-        <v>18.49690038334237</v>
+        <v>22.46501871394139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.88409270847629</v>
+        <v>17.44394497333373</v>
       </c>
       <c r="C23">
-        <v>19.02754434189956</v>
+        <v>10.58027540397405</v>
       </c>
       <c r="D23">
-        <v>11.47920136408291</v>
+        <v>11.44300852674462</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.81388623934386</v>
+        <v>31.71029458747441</v>
       </c>
       <c r="G23">
-        <v>2.034451481131082</v>
+        <v>3.61984351837557</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.824840427520069</v>
+        <v>11.46552307417142</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.82651566895667</v>
+        <v>16.50948538424607</v>
       </c>
       <c r="O23">
-        <v>18.27266777328141</v>
+        <v>22.45982111450323</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.77819220301124</v>
+        <v>16.55786395113678</v>
       </c>
       <c r="C24">
-        <v>17.65047432186622</v>
+        <v>9.827803141125045</v>
       </c>
       <c r="D24">
-        <v>10.7451874843776</v>
+        <v>11.29110553815974</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.08628810936943</v>
+        <v>31.52564999428052</v>
       </c>
       <c r="G24">
-        <v>2.044879634654118</v>
+        <v>3.623334648149184</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.299181159720964</v>
+        <v>11.40551902844699</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.03488363175397</v>
+        <v>16.57851687374051</v>
       </c>
       <c r="O24">
-        <v>17.45015222249756</v>
+        <v>22.45181368307131</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.3213779818115</v>
+        <v>15.55091524400509</v>
       </c>
       <c r="C25">
-        <v>16.0453756535197</v>
+        <v>8.969508439778641</v>
       </c>
       <c r="D25">
-        <v>9.91737709959137</v>
+        <v>11.13244299755601</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.2421579860452</v>
+        <v>31.36165079438571</v>
       </c>
       <c r="G25">
-        <v>2.056432537213551</v>
+        <v>3.627379295265041</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.729030241832641</v>
+        <v>11.34928533489924</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.27586654418039</v>
+        <v>16.65999702044128</v>
       </c>
       <c r="O25">
-        <v>16.62034080446772</v>
+        <v>22.46805599524075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77062261171358</v>
+        <v>21.34901454028365</v>
       </c>
       <c r="C2">
-        <v>8.28909245029398</v>
+        <v>14.75884349610397</v>
       </c>
       <c r="D2">
-        <v>11.02070741106156</v>
+        <v>9.279078617822179</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.27156940681103</v>
+        <v>24.90701041771101</v>
       </c>
       <c r="G2">
-        <v>3.630599936758346</v>
+        <v>2.065246062799165</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31532976177555</v>
+        <v>8.308385515028501</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.72606001585262</v>
+        <v>11.46637292622879</v>
       </c>
       <c r="O2">
-        <v>22.50128920119138</v>
+        <v>16.05897333347679</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.22076246652055</v>
+        <v>19.90844285153993</v>
       </c>
       <c r="C3">
-        <v>7.793167420331984</v>
+        <v>13.82099844484594</v>
       </c>
       <c r="D3">
-        <v>10.94845887686247</v>
+        <v>8.830271433595168</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.22979351790346</v>
+        <v>24.02037543476764</v>
       </c>
       <c r="G3">
-        <v>3.632935291580253</v>
+        <v>2.071431172566265</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.29702547725283</v>
+        <v>8.024058033508425</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.77463508004433</v>
+        <v>11.60328272924445</v>
       </c>
       <c r="O3">
-        <v>22.53699519947344</v>
+        <v>15.7095118117751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.87404117160827</v>
+        <v>18.97207239813738</v>
       </c>
       <c r="C4">
-        <v>7.471839705447739</v>
+        <v>13.21250749467913</v>
       </c>
       <c r="D4">
-        <v>10.90590904532199</v>
+        <v>8.547484262569444</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.21367588684572</v>
+        <v>23.48655480546439</v>
       </c>
       <c r="G4">
-        <v>3.634444977134963</v>
+        <v>2.075339695819044</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.28812540311812</v>
+        <v>7.850364503887184</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.80634236683635</v>
+        <v>11.69109862062892</v>
       </c>
       <c r="O4">
-        <v>22.56538612541161</v>
+        <v>15.51015580134968</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.73067638935665</v>
+        <v>18.57736838724201</v>
       </c>
       <c r="C5">
-        <v>7.336731380094379</v>
+        <v>12.95632777038443</v>
       </c>
       <c r="D5">
-        <v>10.8890392604194</v>
+        <v>8.430574951580715</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.20950729660418</v>
+        <v>23.271938461357</v>
       </c>
       <c r="G5">
-        <v>3.635079301762444</v>
+        <v>2.076961181307048</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.28508895291286</v>
+        <v>7.77989200126254</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.81973741789058</v>
+        <v>11.72781542200768</v>
       </c>
       <c r="O5">
-        <v>22.57857616516829</v>
+        <v>15.43272168650605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.7067523331536</v>
+        <v>18.51103285874632</v>
       </c>
       <c r="C6">
-        <v>7.314047489722779</v>
+        <v>12.91329328453664</v>
       </c>
       <c r="D6">
-        <v>10.88626680967515</v>
+        <v>8.411065981694914</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.20896004914019</v>
+        <v>23.23648571744589</v>
       </c>
       <c r="G6">
-        <v>3.635185787265117</v>
+        <v>2.077232187269772</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.2846204691244</v>
+        <v>7.76821140947193</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.82199031359592</v>
+        <v>11.73396812337343</v>
       </c>
       <c r="O6">
-        <v>22.58086405383218</v>
+        <v>15.42009272862476</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.87211579530327</v>
+        <v>18.9668025393182</v>
       </c>
       <c r="C7">
-        <v>7.470034349614972</v>
+        <v>13.20908582365505</v>
       </c>
       <c r="D7">
-        <v>10.90567961383011</v>
+        <v>8.545914141983792</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.21360995115057</v>
+        <v>23.48364824082222</v>
       </c>
       <c r="G7">
-        <v>3.634453454377544</v>
+        <v>2.07536144630618</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.28808205930267</v>
+        <v>7.849412716875048</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.8065210965699</v>
+        <v>11.69159004144232</v>
       </c>
       <c r="O7">
-        <v>22.56555745770702</v>
+        <v>15.50909612946327</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.58304359547821</v>
+        <v>20.86301477893912</v>
       </c>
       <c r="C8">
-        <v>8.12162532492375</v>
+        <v>14.44224459298038</v>
       </c>
       <c r="D8">
-        <v>10.99542897899306</v>
+        <v>9.125906820747174</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.2551886396931</v>
+        <v>24.59925579444216</v>
       </c>
       <c r="G8">
-        <v>3.63138947936532</v>
+        <v>2.067356215235402</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.30853452648393</v>
+        <v>8.210215597702724</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.74241858385625</v>
+        <v>11.51279244596145</v>
       </c>
       <c r="O8">
-        <v>22.51225509723146</v>
+        <v>15.93531291173751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.89652648019193</v>
+        <v>24.17408026553202</v>
       </c>
       <c r="C9">
-        <v>9.263677955568763</v>
+        <v>16.60221745033282</v>
       </c>
       <c r="D9">
-        <v>11.18513980608671</v>
+        <v>10.20088171895962</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.41215400470238</v>
+        <v>26.86030585975458</v>
       </c>
       <c r="G9">
-        <v>3.625979347569381</v>
+        <v>2.052496083427453</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.36707972421557</v>
+        <v>8.921363899622621</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.63160971626749</v>
+        <v>11.19260751873605</v>
       </c>
       <c r="O9">
-        <v>22.45927026538271</v>
+        <v>16.89217312977225</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.80260274048421</v>
+        <v>26.36416432745311</v>
       </c>
       <c r="C10">
-        <v>10.03797756844444</v>
+        <v>18.03357009758996</v>
       </c>
       <c r="D10">
-        <v>11.3319571137071</v>
+        <v>10.94732756033324</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.57302327772127</v>
+        <v>28.55389364656417</v>
       </c>
       <c r="G10">
-        <v>3.622365249793971</v>
+        <v>2.042027498565665</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.42114507562969</v>
+        <v>9.442172013297057</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.5592292481991</v>
+        <v>10.97700329777161</v>
       </c>
       <c r="O10">
-        <v>22.45202492212481</v>
+        <v>17.66889514476512</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.20032541560146</v>
+        <v>27.30914746446124</v>
       </c>
       <c r="C11">
-        <v>10.37563825539757</v>
+        <v>18.65151492761585</v>
       </c>
       <c r="D11">
-        <v>11.40015560932114</v>
+        <v>11.27677151353423</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.65595262716799</v>
+        <v>29.32941783289298</v>
       </c>
       <c r="G11">
-        <v>3.620798575083069</v>
+        <v>2.037347747954021</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.44809104021795</v>
+        <v>9.67813181231613</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.528252239397</v>
+        <v>10.88347820723128</v>
       </c>
       <c r="O11">
-        <v>22.4556475017766</v>
+        <v>18.03816000783236</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.34873747353617</v>
+        <v>27.65972470530085</v>
       </c>
       <c r="C12">
-        <v>10.50049100675318</v>
+        <v>18.8807974086442</v>
       </c>
       <c r="D12">
-        <v>11.42616538529199</v>
+        <v>11.40003066790424</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.68874164064083</v>
+        <v>29.62370659383776</v>
       </c>
       <c r="G12">
-        <v>3.620216380571121</v>
+        <v>2.035586172894893</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.45862793703306</v>
+        <v>9.767310196746804</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.51680162510798</v>
+        <v>10.84874739308865</v>
       </c>
       <c r="O12">
-        <v>22.45801587671632</v>
+        <v>18.18027429527701</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.31687370445016</v>
+        <v>27.58454304480925</v>
       </c>
       <c r="C13">
-        <v>10.47373550671774</v>
+        <v>18.8316263364526</v>
       </c>
       <c r="D13">
-        <v>11.42055580467926</v>
+        <v>11.37355151309075</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.68161860770888</v>
+        <v>29.56030037263322</v>
       </c>
       <c r="G13">
-        <v>3.620341275104829</v>
+        <v>2.035965112678701</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.45634390106667</v>
+        <v>9.748112251262921</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.51925528885777</v>
+        <v>10.85619629787112</v>
       </c>
       <c r="O13">
-        <v>22.45746146399746</v>
+        <v>18.14956603357896</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.21258001510228</v>
+        <v>27.33813466918445</v>
       </c>
       <c r="C14">
-        <v>10.38597026482095</v>
+        <v>18.67047240470533</v>
       </c>
       <c r="D14">
-        <v>11.40229185795929</v>
+        <v>11.2869422316296</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.65862253475935</v>
+        <v>29.35361736693237</v>
       </c>
       <c r="G14">
-        <v>3.620750456039642</v>
+        <v>2.037202618682484</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.44895127300221</v>
+        <v>9.685472235563493</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.52730458801744</v>
+        <v>10.88060696332592</v>
       </c>
       <c r="O14">
-        <v>22.4558223698615</v>
+        <v>18.04980613549274</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.148407780252</v>
+        <v>27.18625933096008</v>
       </c>
       <c r="C15">
-        <v>10.33181961226104</v>
+        <v>18.57114797192533</v>
       </c>
       <c r="D15">
-        <v>11.39112813935358</v>
+        <v>11.2336960718954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.64471667664368</v>
+        <v>29.22709525164616</v>
       </c>
       <c r="G15">
-        <v>3.621002531249319</v>
+        <v>2.037961959306539</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.4444662888603</v>
+        <v>9.647079812837763</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.53227142516748</v>
+        <v>10.89564939171238</v>
       </c>
       <c r="O15">
-        <v>22.45494819701654</v>
+        <v>17.98899730320679</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.77630927716089</v>
+        <v>26.30138443020005</v>
       </c>
       <c r="C16">
-        <v>10.01548852771207</v>
+        <v>17.99252248656767</v>
       </c>
       <c r="D16">
-        <v>11.32752700366384</v>
+        <v>10.92559031482848</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.5677984755446</v>
+        <v>28.50330288918216</v>
       </c>
       <c r="G16">
-        <v>3.622469188090947</v>
+        <v>2.042334880784501</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.41943098495924</v>
+        <v>9.426728794451801</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.56129284100247</v>
+        <v>10.98320951264543</v>
       </c>
       <c r="O16">
-        <v>22.4519275630465</v>
+        <v>17.64508246616714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.54424724709641</v>
+        <v>25.74547985317885</v>
       </c>
       <c r="C17">
-        <v>9.81605251191716</v>
+        <v>17.62908999683316</v>
       </c>
       <c r="D17">
-        <v>11.28885808470129</v>
+        <v>10.73395303318774</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.52309769119038</v>
+        <v>28.060489165859</v>
       </c>
       <c r="G17">
-        <v>3.623388716028431</v>
+        <v>2.045037745574906</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.40467140612282</v>
+        <v>9.291275264872629</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.57959535575567</v>
+        <v>11.03811145730567</v>
       </c>
       <c r="O17">
-        <v>22.45184800368563</v>
+        <v>17.43817379938169</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.40941664284531</v>
+        <v>25.42090308081995</v>
       </c>
       <c r="C18">
-        <v>9.699362477591695</v>
+        <v>17.41692618775368</v>
       </c>
       <c r="D18">
-        <v>11.26675063403003</v>
+        <v>10.62277727648986</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.49830575208768</v>
+        <v>27.80627939266133</v>
       </c>
       <c r="G18">
-        <v>3.623924892560912</v>
+        <v>2.046600208173438</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.39640374100581</v>
+        <v>9.213277220158323</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.59030598239102</v>
+        <v>11.07011622975195</v>
       </c>
       <c r="O18">
-        <v>22.45245340205987</v>
+        <v>17.32066515555174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.36353651278694</v>
+        <v>25.31017328298625</v>
       </c>
       <c r="C19">
-        <v>9.659512881655075</v>
+        <v>17.34455261773348</v>
       </c>
       <c r="D19">
-        <v>11.25928898095512</v>
+        <v>10.58497318266514</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.49006988908832</v>
+        <v>27.72029591236398</v>
       </c>
       <c r="G19">
-        <v>3.624107686292894</v>
+        <v>2.047130617057998</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.39364266843591</v>
+        <v>9.186854489682338</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.59396395199628</v>
+        <v>11.08102491749</v>
       </c>
       <c r="O19">
-        <v>22.45277014990164</v>
+        <v>17.28113669809518</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.56909175454516</v>
+        <v>25.80515649234845</v>
       </c>
       <c r="C20">
-        <v>9.837487628277247</v>
+        <v>17.6681012881547</v>
       </c>
       <c r="D20">
-        <v>11.29296073218225</v>
+        <v>10.75445191375572</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.52776118827672</v>
+        <v>28.10757824180698</v>
       </c>
       <c r="G20">
-        <v>3.623290076813316</v>
+        <v>2.044749218119447</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.40621968348493</v>
+        <v>9.30570401378078</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.5776280341582</v>
+        <v>11.03222269213778</v>
       </c>
       <c r="O20">
-        <v>22.45178906512852</v>
+        <v>17.46004444656572</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.24327408689077</v>
+        <v>27.41070711920652</v>
       </c>
       <c r="C21">
-        <v>10.41183069601909</v>
+        <v>18.71793486614744</v>
       </c>
       <c r="D21">
-        <v>11.40765156254887</v>
+        <v>11.31242226181851</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.66533958033622</v>
+        <v>29.41430924385834</v>
       </c>
       <c r="G21">
-        <v>3.620629969673943</v>
+        <v>2.036838857985118</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.45111367098324</v>
+        <v>9.703876094220359</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.5249327271501</v>
+        <v>10.87341810343271</v>
       </c>
       <c r="O21">
-        <v>22.45627675547275</v>
+        <v>18.07904615050101</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67104196553528</v>
+        <v>28.41772225266727</v>
       </c>
       <c r="C22">
-        <v>10.76964633657051</v>
+        <v>19.37658011819484</v>
       </c>
       <c r="D22">
-        <v>11.48367528887198</v>
+        <v>11.66837188828872</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.76332130787371</v>
+        <v>30.27188985165089</v>
       </c>
       <c r="G22">
-        <v>3.618955940539192</v>
+        <v>2.031729755165011</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.48239306388591</v>
+        <v>9.963079203974793</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.49212338704491</v>
+        <v>10.77364065606877</v>
       </c>
       <c r="O22">
-        <v>22.46501871394139</v>
+        <v>18.49690038334237</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.44394497333373</v>
+        <v>27.88409270847635</v>
       </c>
       <c r="C23">
-        <v>10.58027540397405</v>
+        <v>19.02754434189947</v>
       </c>
       <c r="D23">
-        <v>11.44300852674462</v>
+        <v>11.47920136408292</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.71029458747441</v>
+        <v>29.81388623934386</v>
       </c>
       <c r="G23">
-        <v>3.61984351837557</v>
+        <v>2.034451481131079</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.46552307417142</v>
+        <v>9.824840427520067</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.50948538424607</v>
+        <v>10.82651566895658</v>
       </c>
       <c r="O23">
-        <v>22.45982111450323</v>
+        <v>18.27266777328137</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.55786395113678</v>
+        <v>25.77819220301131</v>
       </c>
       <c r="C24">
-        <v>9.827803141125045</v>
+        <v>17.65047432186628</v>
       </c>
       <c r="D24">
-        <v>11.29110553815974</v>
+        <v>10.74518748437763</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.52564999428052</v>
+        <v>28.08628810936938</v>
       </c>
       <c r="G24">
-        <v>3.623334648149184</v>
+        <v>2.044879634653716</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.40551902844699</v>
+        <v>9.299181159720961</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.57851687374051</v>
+        <v>11.03488363175392</v>
       </c>
       <c r="O24">
-        <v>22.45181368307131</v>
+        <v>17.45015222249749</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.55091524400509</v>
+        <v>23.3213779818115</v>
       </c>
       <c r="C25">
-        <v>8.969508439778641</v>
+        <v>16.04537565351958</v>
       </c>
       <c r="D25">
-        <v>11.13244299755601</v>
+        <v>9.917377099591288</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.36165079438571</v>
+        <v>26.24215798604516</v>
       </c>
       <c r="G25">
-        <v>3.627379295265041</v>
+        <v>2.05643253721342</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.34928533489924</v>
+        <v>8.72903024183262</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.65999702044128</v>
+        <v>11.27586654418038</v>
       </c>
       <c r="O25">
-        <v>22.46805599524075</v>
+        <v>16.62034080446776</v>
       </c>
     </row>
   </sheetData>
